--- a/imageCreationExcel/back/0901-1/0901-1_11.xlsx
+++ b/imageCreationExcel/back/0901-1/0901-1_11.xlsx
@@ -486,16 +486,16 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.5140866707685112</v>
+        <v>0.9250678092621741</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -503,24 +503,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.096421546038234</v>
+        <v>1.180353322069994</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>18.04343430888549</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_J_gamma0.51_contrast1.1.jpg</t>
+          <t>1_1_sharpness0.93_contrast1.2_brightness18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -535,11 +533,11 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>10.8375240186172</v>
+        <v>0.005658179018232179</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -547,24 +545,22 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.8360203468165369</v>
+        <v>1.122821720995692</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10.69684598707559</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_0_brightness11.0_contrast0.84.jpg</t>
+          <t>2_0_sharpness0.0057_contrast1.1_equalization11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -574,39 +570,41 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0.4686035212519507</v>
+        <v>6.827113902192005</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.5743951462214784</v>
+        <v>1.186099434349909</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>22.15105640456819</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_S_sharpness0.47_gamma0.57_equalization22.0.jpg</t>
+          <t>3_7_brightness6.8_contrast1.2.jpg</t>
         </is>
       </c>
     </row>
@@ -616,24 +614,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.9725356928388728</v>
+        <v>0.1232344836449797</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>13.46116264595107</v>
+        <v>18.96769618473527</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -650,7 +648,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_8_contrast0.97_equalization13.0.jpg</t>
+          <t>4_3_sharpness0.12_brightness19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -660,24 +658,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.8543705150846713</v>
+        <v>0.9133222477789509</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.9464252410274701</v>
+        <v>20.60202110952844</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -694,7 +692,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_0_contrast0.85_gamma0.95.jpg</t>
+          <t>5_1_gamma0.91_equalization21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -704,7 +702,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -713,7 +711,7 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.6277650631619487</v>
+        <v>0.5162646149630753</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -721,24 +719,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>10.16431742380058</v>
+        <v>2.849113574043216</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1.125181668671752</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_J_sharpness0.63_brightness10.0.jpg</t>
+          <t>6_S_sharpness0.52_brightness2.8_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -748,7 +744,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -757,15 +753,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.139853549144519</v>
+        <v>1.02119405825082</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.006476814108075324</v>
+        <v>30.57509586855323</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -782,7 +778,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_9_contrast1.1_sharpness0.0065.jpg</t>
+          <t>7_J_contrast1.0_equalization31.0.jpg</t>
         </is>
       </c>
     </row>
@@ -792,7 +788,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -801,7 +797,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>10.47374744148781</v>
+        <v>12.59660814741521</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -809,7 +805,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.9707707149430174</v>
+        <v>0.8058295093561642</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -822,11 +818,11 @@
         </is>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_I_brightness10.0_gamma0.97.jpg</t>
+          <t>8_Q_brightness13.0_gamma0.81.jpg</t>
         </is>
       </c>
     </row>
@@ -836,39 +832,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.2281143984635947</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0.9521660884510271</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F10" t="n">
-        <v>4.332688707463914</v>
+        <v>1.129590848386089</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.6477427971257251</v>
+        <v>20.24576016208091</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_2_contrast0.95_brightness4.3_gamma0.65.jpg</t>
+          <t>9_9_sharpness0.23_contrast1.1_equalization20.0.jpg</t>
         </is>
       </c>
     </row>
@@ -878,7 +874,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -887,7 +883,7 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6801931165440053</v>
+        <v>1.065879002499193</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -895,7 +891,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8536993676243431</v>
+        <v>0.9093977446629308</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -903,14 +899,14 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.702261375508601</v>
+        <v>0.3751863041017517</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_8_gamma0.68_contrast0.85_sharpness0.7.jpg</t>
+          <t>10_7_gamma1.1_contrast0.91_sharpness0.38.jpg</t>
         </is>
       </c>
     </row>
@@ -920,39 +916,41 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>4.877587326019921</v>
+        <v>1.080032310489572</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9478076253657794</v>
+        <v>27.89443387571011</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>0.4605018915956113</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_8_brightness4.9_gamma0.95_sharpness0.46.jpg</t>
+          <t>11_S_gamma1.1_equalization28.0.jpg</t>
         </is>
       </c>
     </row>
@@ -962,16 +960,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>9.823204811478128</v>
+        <v>0.635230344391752</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -979,22 +977,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.082626099314578</v>
+        <v>1.079344862899499</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.5909967232967464</v>
+        <v>29.63853405785047</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_C_brightness9.8_contrast1.1_sharpness0.59.jpg</t>
+          <t>12_8_gamma0.64_contrast1.1_equalization30.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1004,39 +1002,41 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>9.377625379151654</v>
+        <v>0.3659806574376973</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.4878721229626052</v>
+        <v>0.8671296143350341</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>0.5377521781911025</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_I_brightness9.4_sharpness0.49_gamma0.54.jpg</t>
+          <t>13_3_sharpness0.37_gamma0.87.jpg</t>
         </is>
       </c>
     </row>
@@ -1046,41 +1046,39 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8942057339529079</v>
+        <v>0.7798223275932898</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>6.315574511056775</v>
+        <v>0.9481695921031507</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>14.18066270407872</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_9_sharpness0.89_brightness6.3.jpg</t>
+          <t>14_E_gamma0.78_sharpness0.95_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1090,24 +1088,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1.050174487941857</v>
+        <v>17.39302625855261</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>28.21411924416015</v>
+        <v>1.05294375819491</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1124,7 +1122,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_B_contrast1.1_equalization28.0.jpg</t>
+          <t>15_J_brightness17.0_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1134,41 +1132,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0.8316291629420377</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0.9843023690564718</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F17" t="n">
-        <v>0.9484633650533348</v>
+        <v>1.039453082187561</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>15.71503329164709</v>
       </c>
       <c r="I17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_3_contrast0.98_gamma0.95.jpg</t>
+          <t>16_9_sharpness0.83_contrast1.0_equalization16.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1178,7 +1174,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1187,32 +1183,30 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.182277147935555</v>
+        <v>1.081705299900381</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>8.019341974101559</v>
+        <v>0.1370632467414634</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6.374610431776242</v>
       </c>
       <c r="I18" t="n">
         <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_3_contrast1.2_brightness8.0.jpg</t>
+          <t>17_I_contrast1.1_sharpness0.14_equalization6.4.jpg</t>
         </is>
       </c>
     </row>
@@ -1222,24 +1216,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>25.60748438651294</v>
+        <v>0.8549106798941259</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.010826822651777</v>
+        <v>0.9254356245583509</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1252,11 +1246,11 @@
         </is>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_P_brightness26.0_gamma1.0.jpg</t>
+          <t>18_0_gamma0.85_sharpness0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -1266,41 +1260,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5390373066490455</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>0.9572247121333948</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>equalization</t>
-        </is>
-      </c>
       <c r="F20" t="n">
-        <v>6.49524233127481</v>
+        <v>0.8698646983963252</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9300513128914045</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_S_contrast0.96_equalization6.5.jpg</t>
+          <t>19_7_sharpness0.54_contrast0.87_gamma0.93.jpg</t>
         </is>
       </c>
     </row>
@@ -1310,7 +1302,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1319,32 +1311,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.725202544824918</v>
+        <v>0.6850897520467395</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>0.502423105932927</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>equalization</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>31.8857416526213</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H21" t="n">
+        <v>26.62991560806746</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_C_sharpness0.73_equalization32.0.jpg</t>
+          <t>20_B_sharpness0.69_gamma0.5_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1354,39 +1344,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.064510100422988</v>
+        <v>0.7493780007992533</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>9.338945630710674</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>0.9507104856486881</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="H22" t="n">
-        <v>0.5232005135856976</v>
+        <v>1.091055183863478</v>
       </c>
       <c r="I22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_0_gamma1.1_contrast0.95_sharpness0.52.jpg</t>
+          <t>21_Q_sharpness0.75_brightness9.3_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1386,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1405,30 +1395,30 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.5406318139601335</v>
+        <v>0.3628411411474469</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>0.6055324438966547</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>0.9115570225922536</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="H23" t="n">
-        <v>3.388435391765241</v>
+        <v>0.9404955887848411</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_7_sharpness0.54_contrast0.91_brightness3.4.jpg</t>
+          <t>22_3_sharpness0.36_gamma0.61_contrast0.94.jpg</t>
         </is>
       </c>
     </row>
@@ -1438,41 +1428,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9844056657560964</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>0.5192507073345737</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1.514630521910643</v>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>0.8726046313610519</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+      <c r="H24" t="n">
+        <v>21.90386181862324</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_C_brightness1.5_contrast0.87.jpg</t>
+          <t>23_J_sharpness0.98_gamma0.52_brightness22.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1482,39 +1470,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.5217649673737</v>
+        <v>1.076634520906059</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.8624343216635351</v>
+        <v>21.03393144773424</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>contrast</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>0.9951591256162742</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_3_sharpness0.52_gamma0.86_contrast1.0.jpg</t>
+          <t>24_E_contrast1.1_brightness21.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1524,7 +1514,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1533,7 +1523,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.8021760408793248</v>
+        <v>0.6711192796573171</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1541,22 +1531,24 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>15.50727529281273</v>
+        <v>23.13259498267775</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>0.3260082621475376</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_P_gamma0.8_brightness16.0_sharpness0.33.jpg</t>
+          <t>25_Q_gamma0.67_brightness23.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1566,16 +1558,16 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\J.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\I.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.145121714931762</v>
+        <v>0.2423786600217925</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1583,22 +1575,24 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>19.21811725051272</v>
+        <v>24.75572383242147</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>1.001390639897786</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_J_contrast1.1_brightness19.0_gamma1.0.jpg</t>
+          <t>26_I_sharpness0.24_brightness25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1608,41 +1602,39 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0.8864983660942498</v>
+        <v>0.9300432433463947</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9807100804604307</v>
+        <v>7.527107600826869</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>0.7353983062899464</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_0_contrast0.89_gamma0.98.jpg</t>
+          <t>27_7_sharpness0.93_brightness7.5_gamma0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -1652,7 +1644,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1661,15 +1653,15 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0.9502324749363042</v>
+        <v>0.8510180221859311</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.1327947965967845</v>
+        <v>1.095026591552857</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1686,7 +1678,7 @@
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_contrast0.95_sharpness0.13.jpg</t>
+          <t>28_3_contrast0.85_gamma1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -1696,7 +1688,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1705,7 +1697,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.5372823539651931</v>
+        <v>1.073407220741431</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1713,7 +1705,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>30.39933176737033</v>
+        <v>13.88409873414476</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1730,7 +1722,7 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_8_gamma0.54_equalization30.0.jpg</t>
+          <t>29_7_gamma1.1_equalization14.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1740,41 +1732,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1.097165301856692</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>20.15969723639226</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F31" t="n">
-        <v>0.8040725968824523</v>
+        <v>18.0807804542013</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5309576677890093</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_Q_brightness20.0_sharpness0.8.jpg</t>
+          <t>30_2_contrast1.1_brightness18.0_gamma0.53.jpg</t>
         </is>
       </c>
     </row>
@@ -1784,7 +1774,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1793,30 +1783,32 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6302113720957551</v>
+        <v>0.6118674035500413</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.9573904533338287</v>
+        <v>18.21369373372378</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>18.85954310780689</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_8_sharpness0.63_contrast0.96_equalization19.0.jpg</t>
+          <t>31_T_sharpness0.61_equalization18.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1826,41 +1818,39 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9755669744549762</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>1.096759542996731</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F33" t="n">
-        <v>0.3851473899790451</v>
+        <v>1.034106171655665</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2524416769010022</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_E_contrast1.1_sharpness0.39.jpg</t>
+          <t>32_3_gamma0.98_contrast1.0_sharpness0.25.jpg</t>
         </is>
       </c>
     </row>
@@ -1870,39 +1860,41 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>sharpness</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0.02419561331320408</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
           <t>brightness</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>3.133474155002369</v>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F34" t="n">
-        <v>0.742343204548932</v>
+        <v>0.09821482548838412</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>gamma</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>0.5374028482916423</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_E_brightness3.1_sharpness0.74_gamma0.54.jpg</t>
+          <t>33_0_sharpness0.024_brightness0.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1912,24 +1904,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.7608502080338062</v>
+        <v>1.042225338711084</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.2070755657151544</v>
+        <v>11.30900082171388</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1946,7 +1938,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_3_gamma0.76_sharpness0.21.jpg</t>
+          <t>34_B_contrast1.0_brightness11.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1948,41 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.9667021477520392</v>
+        <v>0.1648738737694555</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.65577598953137</v>
+        <v>25.17246663051805</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>27.61483070321048</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_P_contrast0.97_gamma0.66_equalization28.0.jpg</t>
+          <t>35_T_sharpness0.16_equalization25.0.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,41 +1992,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.9785189677157075</v>
+        <v>0.5936063723851388</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>8.838307225249874</v>
+        <v>0.259704514300695</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1.043174364642584</v>
       </c>
       <c r="I37" t="n">
         <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_9_sharpness0.98_equalization8.8.jpg</t>
+          <t>36_7_gamma0.59_sharpness0.26_contrast1.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2042,41 +2034,39 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0.5157917634366957</v>
+        <v>16.8947869883998</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>10.80691957933852</v>
+        <v>0.734172020960585</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>contrast</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>0.9889000145989529</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_1_sharpness0.52_brightness11.0.jpg</t>
+          <t>37_B_brightness17.0_gamma0.73_contrast0.99.jpg</t>
         </is>
       </c>
     </row>
@@ -2086,39 +2076,41 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\0.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0.253976210869734</v>
+        <v>0.7771405374266488</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.027142347109864</v>
+        <v>13.29576335128076</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>equalization</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>28.53874733792091</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I39" t="n">
         <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_0_sharpness0.25_contrast1.0_equalization29.0.jpg</t>
+          <t>38_P_gamma0.78_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2128,41 +2120,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\P.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\2.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>0.5607462206346154</v>
+        <v>0.2100362131908862</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>1.170646556887525</v>
+        <v>7.254047849044317</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>0.6956382961093754</v>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_P_gamma0.56_contrast1.2.jpg</t>
+          <t>39_2_sharpness0.21_brightness7.3_gamma0.7.jpg</t>
         </is>
       </c>
     </row>
@@ -2172,39 +2162,39 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0.9562784210541897</v>
+        <v>0.7580261419049361</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.6422287603707911</v>
+        <v>0.9662692717720168</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>15.90181910196822</v>
+        <v>12.1354719372153</v>
       </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_contrast0.96_gamma0.64_equalization16.0.jpg</t>
+          <t>40_8_gamma0.76_sharpness0.97_brightness12.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2214,39 +2204,41 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>18.58556846465572</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>1.010911040225833</v>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>brightness</t>
-        </is>
-      </c>
       <c r="F42" t="n">
-        <v>20.43247817073069</v>
+        <v>1.066878038730013</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>0.7410530350468225</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_B_contrast1.0_brightness20.0_sharpness0.74.jpg</t>
+          <t>41_8_brightness19.0_contrast1.1.jpg</t>
         </is>
       </c>
     </row>
@@ -2256,16 +2248,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\S.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1.12598785063813</v>
+        <v>0.5028974495342423</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2273,22 +2265,24 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>1.035427593405039</v>
+        <v>0.9614049521367538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>sharpness</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>0.3486856063202748</v>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_S_contrast1.1_gamma1.0_sharpness0.35.jpg</t>
+          <t>42_E_sharpness0.5_gamma0.96.jpg</t>
         </is>
       </c>
     </row>
@@ -2298,41 +2292,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\T.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0.8653448200273095</v>
+        <v>0.9456269149548473</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.9490878113575806</v>
+        <v>0.9843551677324637</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>equalization</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>19.11592649916707</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_T_brightness0.87_contrast0.95.jpg</t>
+          <t>43_3_gamma0.95_sharpness0.98_equalization19.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2342,7 +2334,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\9.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\B.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2351,15 +2343,15 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1.049227203877694</v>
+        <v>0.9765356733794825</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.9007773372653881</v>
+        <v>13.30006890906863</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -2376,7 +2368,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_9_gamma1.0_sharpness0.9.jpg</t>
+          <t>44_B_gamma0.98_equalization13.0.jpg</t>
         </is>
       </c>
     </row>
@@ -2386,7 +2378,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\Q.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2395,7 +2387,7 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.728255472927046</v>
+        <v>0.643312548342639</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -2403,24 +2395,22 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.7333381502024179</v>
+        <v>0.6129524236308976</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
+          <t>brightness</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2.715492106715118</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_Q_sharpness0.73_gamma0.73.jpg</t>
+          <t>45_C_sharpness0.64_gamma0.61_brightness2.7.jpg</t>
         </is>
       </c>
     </row>
@@ -2430,24 +2420,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\7.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0.917828663575884</v>
+        <v>0.9437686116882662</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>25.87048364942084</v>
+        <v>0.6290394425431666</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2464,7 +2454,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_1_gamma0.92_equalization26.0.jpg</t>
+          <t>46_7_contrast0.94_sharpness0.63.jpg</t>
         </is>
       </c>
     </row>
@@ -2474,39 +2464,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\8.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0.7910793079487063</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>1.147444644587844</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>gamma</t>
-        </is>
-      </c>
       <c r="F48" t="n">
-        <v>0.5199886726839222</v>
+        <v>1.104109043571237</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>26.56786704781952</v>
+        <v>0.744778798530131</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_8_contrast1.1_gamma0.52_brightness27.0.jpg</t>
+          <t>47_C_gamma0.79_contrast1.1_sharpness0.74.jpg</t>
         </is>
       </c>
     </row>
@@ -2516,24 +2506,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomBright_figureDark\C.JPG</t>
+          <t>pictures\transformed\roomBright_figureDark\1.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>gamma</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0.8231313976089437</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
           <t>contrast</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>1.092926793010048</v>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>sharpness</t>
-        </is>
-      </c>
       <c r="F49" t="n">
-        <v>0.5844602925716122</v>
+        <v>1.106630852004769</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2541,14 +2531,14 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>18.18665027921805</v>
+        <v>27.09841698536557</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_C_contrast1.1_sharpness0.58_equalization18.0.jpg</t>
+          <t>48_1_gamma0.82_contrast1.1_equalization27.0.jpg</t>
         </is>
       </c>
     </row>
